--- a/po_analysis_by_asin/B08CS3X1R9_po_data.xlsx
+++ b/po_analysis_by_asin/B08CS3X1R9_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -693,7 +694,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,537 @@
       </c>
       <c r="B10" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-26.20248491409725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.4761265210271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-32.40117467225442</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.62268289246235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-29.00874033777513</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.67397200840361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-26.71572849790796</v>
+      </c>
+      <c r="D5" t="n">
+        <v>82.37818534629997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-27.25062417580597</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.0227325045131</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.29148418170701</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87.24641683208256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-27.20742502860049</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87.01764344492274</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-22.81788339447456</v>
+      </c>
+      <c r="D9" t="n">
+        <v>91.27839488468646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-27.10316124084338</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.88921342433615</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.76124807233443</v>
+      </c>
+      <c r="D11" t="n">
+        <v>91.64615605063599</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-21.57688511695857</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87.59971236614753</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-21.4504721158102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86.57631429161236</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-22.31835780180636</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.85787721797227</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.55442308785434</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86.97218636144002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-26.11680070416986</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91.78442767617126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-30.23040350855943</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86.28770533455818</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.27400506336808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>89.26855638314358</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.68596670910047</v>
+      </c>
+      <c r="D19" t="n">
+        <v>89.19667971396554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-23.41455695860182</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90.23858289676231</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-23.79035375576454</v>
+      </c>
+      <c r="D21" t="n">
+        <v>95.25881651663148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-20.38971938690293</v>
+      </c>
+      <c r="D22" t="n">
+        <v>88.46503106736412</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-21.21678413411461</v>
+      </c>
+      <c r="D23" t="n">
+        <v>90.07487139235923</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-23.433250732927</v>
+      </c>
+      <c r="D24" t="n">
+        <v>90.38831545893964</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.15149524930697</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88.2262577905729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-22.17375633749975</v>
+      </c>
+      <c r="D26" t="n">
+        <v>93.2057215820582</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.70505007320202</v>
+      </c>
+      <c r="D27" t="n">
+        <v>95.61693375092878</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>39</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-16.49852438236568</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96.289317059458</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.34942060491667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>98.37311416780535</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>39</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-19.88289009849426</v>
+      </c>
+      <c r="D30" t="n">
+        <v>89.45941897710379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>39</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.85218641083066</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.66309438425577</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>40</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-18.87798540534655</v>
+      </c>
+      <c r="D32" t="n">
+        <v>97.51723219421991</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-17.73642719428278</v>
+      </c>
+      <c r="D33" t="n">
+        <v>98.01841555808389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>40</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-16.56103399972706</v>
+      </c>
+      <c r="D34" t="n">
+        <v>99.04164219213277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-16.10538449579345</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100.9062262639273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>41</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-16.45721202047351</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100.055679302632</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08CS3X1R9_po_data.xlsx
+++ b/po_analysis_by_asin/B08CS3X1R9_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
-        <v>-26.20248491409725</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.4761265210271</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>-32.40117467225442</v>
-      </c>
-      <c r="D3" t="n">
-        <v>81.62268289246235</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>-29.00874033777513</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87.67397200840361</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>-26.71572849790796</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82.37818534629997</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>-27.25062417580597</v>
-      </c>
-      <c r="D6" t="n">
-        <v>89.0227325045131</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>31</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.29148418170701</v>
-      </c>
-      <c r="D7" t="n">
-        <v>87.24641683208256</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>-27.20742502860049</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87.01764344492274</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>-22.81788339447456</v>
-      </c>
-      <c r="D9" t="n">
-        <v>91.27839488468646</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>32</v>
       </c>
-      <c r="C10" t="n">
-        <v>-27.10316124084338</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90.88921342433615</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.76124807233443</v>
-      </c>
-      <c r="D11" t="n">
-        <v>91.64615605063599</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>32</v>
       </c>
-      <c r="C12" t="n">
-        <v>-21.57688511695857</v>
-      </c>
-      <c r="D12" t="n">
-        <v>87.59971236614753</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
-        <v>-21.4504721158102</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86.57631429161236</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
-        <v>-22.31835780180636</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88.85787721797227</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.55442308785434</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86.97218636144002</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>-26.11680070416986</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91.78442767617126</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>-30.23040350855943</v>
-      </c>
-      <c r="D17" t="n">
-        <v>86.28770533455818</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>-24.27400506336808</v>
-      </c>
-      <c r="D18" t="n">
-        <v>89.26855638314358</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>34</v>
       </c>
-      <c r="C19" t="n">
-        <v>-25.68596670910047</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89.19667971396554</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>-23.41455695860182</v>
-      </c>
-      <c r="D20" t="n">
-        <v>90.23858289676231</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>34</v>
       </c>
-      <c r="C21" t="n">
-        <v>-23.79035375576454</v>
-      </c>
-      <c r="D21" t="n">
-        <v>95.25881651663148</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>35</v>
       </c>
-      <c r="C22" t="n">
-        <v>-20.38971938690293</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88.46503106736412</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" t="n">
-        <v>-21.21678413411461</v>
-      </c>
-      <c r="D23" t="n">
-        <v>90.07487139235923</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>35</v>
       </c>
-      <c r="C24" t="n">
-        <v>-23.433250732927</v>
-      </c>
-      <c r="D24" t="n">
-        <v>90.38831545893964</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>36</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.15149524930697</v>
-      </c>
-      <c r="D25" t="n">
-        <v>88.2262577905729</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>36</v>
       </c>
-      <c r="C26" t="n">
-        <v>-22.17375633749975</v>
-      </c>
-      <c r="D26" t="n">
-        <v>93.2057215820582</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>37</v>
       </c>
-      <c r="C27" t="n">
-        <v>-17.70505007320202</v>
-      </c>
-      <c r="D27" t="n">
-        <v>95.61693375092878</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>39</v>
       </c>
-      <c r="C28" t="n">
-        <v>-16.49852438236568</v>
-      </c>
-      <c r="D28" t="n">
-        <v>96.289317059458</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>39</v>
       </c>
-      <c r="C29" t="n">
-        <v>-15.34942060491667</v>
-      </c>
-      <c r="D29" t="n">
-        <v>98.37311416780535</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>39</v>
       </c>
-      <c r="C30" t="n">
-        <v>-19.88289009849426</v>
-      </c>
-      <c r="D30" t="n">
-        <v>89.45941897710379</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1224,12 +1040,6 @@
       <c r="B31" t="n">
         <v>39</v>
       </c>
-      <c r="C31" t="n">
-        <v>-16.85218641083066</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96.66309438425577</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1238,12 +1048,6 @@
       <c r="B32" t="n">
         <v>40</v>
       </c>
-      <c r="C32" t="n">
-        <v>-18.87798540534655</v>
-      </c>
-      <c r="D32" t="n">
-        <v>97.51723219421991</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1252,12 +1056,6 @@
       <c r="B33" t="n">
         <v>40</v>
       </c>
-      <c r="C33" t="n">
-        <v>-17.73642719428278</v>
-      </c>
-      <c r="D33" t="n">
-        <v>98.01841555808389</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1266,12 +1064,6 @@
       <c r="B34" t="n">
         <v>40</v>
       </c>
-      <c r="C34" t="n">
-        <v>-16.56103399972706</v>
-      </c>
-      <c r="D34" t="n">
-        <v>99.04164219213277</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1280,12 +1072,6 @@
       <c r="B35" t="n">
         <v>40</v>
       </c>
-      <c r="C35" t="n">
-        <v>-16.10538449579345</v>
-      </c>
-      <c r="D35" t="n">
-        <v>100.9062262639273</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1293,12 +1079,6 @@
       </c>
       <c r="B36" t="n">
         <v>41</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-16.45721202047351</v>
-      </c>
-      <c r="D36" t="n">
-        <v>100.055679302632</v>
       </c>
     </row>
   </sheetData>
